--- a/example/arkusz.xlsx
+++ b/example/arkusz.xlsx
@@ -14,12 +14,675 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>World</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="223">
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>obs_date</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
+  <si>
+    <t>frontal</t>
+  </si>
+  <si>
+    <t>parietal_l</t>
+  </si>
+  <si>
+    <t>parietal_r</t>
+  </si>
+  <si>
+    <t>occipital</t>
+  </si>
+  <si>
+    <t>temporal_l</t>
+  </si>
+  <si>
+    <t>temporal_r</t>
+  </si>
+  <si>
+    <t>sphenoid</t>
+  </si>
+  <si>
+    <t>nasal_l</t>
+  </si>
+  <si>
+    <t>nasal_r</t>
+  </si>
+  <si>
+    <t>maxilla_l</t>
+  </si>
+  <si>
+    <t>maxilla_r</t>
+  </si>
+  <si>
+    <t>zygomatic_l</t>
+  </si>
+  <si>
+    <t>zygomatic_r</t>
+  </si>
+  <si>
+    <t>mandible</t>
+  </si>
+  <si>
+    <t>palatine_l</t>
+  </si>
+  <si>
+    <t>palatine_r</t>
+  </si>
+  <si>
+    <t>lacrimal_l</t>
+  </si>
+  <si>
+    <t>lacrimal_r</t>
+  </si>
+  <si>
+    <t>orbit_l</t>
+  </si>
+  <si>
+    <t>orbit_r</t>
+  </si>
+  <si>
+    <t>ethmoid</t>
+  </si>
+  <si>
+    <t>thyroid</t>
+  </si>
+  <si>
+    <t>hyoid</t>
+  </si>
+  <si>
+    <t>calotte</t>
+  </si>
+  <si>
+    <t>ilium_l</t>
+  </si>
+  <si>
+    <t>ilium_r</t>
+  </si>
+  <si>
+    <t>scapula_l</t>
+  </si>
+  <si>
+    <t>scapula_r</t>
+  </si>
+  <si>
+    <t>manubrium</t>
+  </si>
+  <si>
+    <t>ischium_l</t>
+  </si>
+  <si>
+    <t>ischium_r</t>
+  </si>
+  <si>
+    <t>patella_l</t>
+  </si>
+  <si>
+    <t>patella_r</t>
+  </si>
+  <si>
+    <t>c_sterni</t>
+  </si>
+  <si>
+    <t>pubic_l</t>
+  </si>
+  <si>
+    <t>pubic_r</t>
+  </si>
+  <si>
+    <t>x_process</t>
+  </si>
+  <si>
+    <t>sacrum</t>
+  </si>
+  <si>
+    <t>coccyx</t>
+  </si>
+  <si>
+    <t>clavicle_l_djs</t>
+  </si>
+  <si>
+    <t>clavicle_l_d13</t>
+  </si>
+  <si>
+    <t>clavicle_l_m13</t>
+  </si>
+  <si>
+    <t>clavicle_l_p13</t>
+  </si>
+  <si>
+    <t>clavicle_l_pjs</t>
+  </si>
+  <si>
+    <t>clavicle_r_djs</t>
+  </si>
+  <si>
+    <t>clavicle_r_d13</t>
+  </si>
+  <si>
+    <t>clavicle_r_m13</t>
+  </si>
+  <si>
+    <t>clavicle_r_p13</t>
+  </si>
+  <si>
+    <t>clavicle_r_pjs</t>
+  </si>
+  <si>
+    <t>humerus_l_djs</t>
+  </si>
+  <si>
+    <t>humerus_l_d13</t>
+  </si>
+  <si>
+    <t>humerus_l_m13</t>
+  </si>
+  <si>
+    <t>humerus_l_p13</t>
+  </si>
+  <si>
+    <t>humerus_l_pjs</t>
+  </si>
+  <si>
+    <t>humerus_r_djs</t>
+  </si>
+  <si>
+    <t>humerus_r_d13</t>
+  </si>
+  <si>
+    <t>humerus_r_m13</t>
+  </si>
+  <si>
+    <t>humerus_r_p13</t>
+  </si>
+  <si>
+    <t>humerus_r_pjs</t>
+  </si>
+  <si>
+    <t>radius_l_djs</t>
+  </si>
+  <si>
+    <t>radius_l_d13</t>
+  </si>
+  <si>
+    <t>radius_l_m13</t>
+  </si>
+  <si>
+    <t>radius_l_p13</t>
+  </si>
+  <si>
+    <t>radius_l_pjs</t>
+  </si>
+  <si>
+    <t>radius_r_djs</t>
+  </si>
+  <si>
+    <t>radius_r_d13</t>
+  </si>
+  <si>
+    <t>radius_r_m13</t>
+  </si>
+  <si>
+    <t>radius_r_p13</t>
+  </si>
+  <si>
+    <t>radius_r_pjs</t>
+  </si>
+  <si>
+    <t>ulna_l_djs</t>
+  </si>
+  <si>
+    <t>ulna_l_d13</t>
+  </si>
+  <si>
+    <t>ulna_l_m13</t>
+  </si>
+  <si>
+    <t>ulna_l_p13</t>
+  </si>
+  <si>
+    <t>ulna_l_pjs</t>
+  </si>
+  <si>
+    <t>ulna_r_djs</t>
+  </si>
+  <si>
+    <t>ulna_r_d13</t>
+  </si>
+  <si>
+    <t>ulna_r_m13</t>
+  </si>
+  <si>
+    <t>ulna_r_p13</t>
+  </si>
+  <si>
+    <t>ulna_r_pjs</t>
+  </si>
+  <si>
+    <t>femur_l_djs</t>
+  </si>
+  <si>
+    <t>femur_l_d13</t>
+  </si>
+  <si>
+    <t>femur_l_m13</t>
+  </si>
+  <si>
+    <t>femur_l_p13</t>
+  </si>
+  <si>
+    <t>femur_l_pjs</t>
+  </si>
+  <si>
+    <t>femur_r_djs</t>
+  </si>
+  <si>
+    <t>femur_r_d13</t>
+  </si>
+  <si>
+    <t>femur_r_m13</t>
+  </si>
+  <si>
+    <t>femur_r_p13</t>
+  </si>
+  <si>
+    <t>femur_r_pjs</t>
+  </si>
+  <si>
+    <t>tibia_l_djs</t>
+  </si>
+  <si>
+    <t>tibia_l_d13</t>
+  </si>
+  <si>
+    <t>tibia_l_m13</t>
+  </si>
+  <si>
+    <t>tibia_l_p13</t>
+  </si>
+  <si>
+    <t>tibia_l_pjs</t>
+  </si>
+  <si>
+    <t>tibia_r_djs</t>
+  </si>
+  <si>
+    <t>tibia_r_d13</t>
+  </si>
+  <si>
+    <t>tibia_r_m13</t>
+  </si>
+  <si>
+    <t>tibia_r_p13</t>
+  </si>
+  <si>
+    <t>tibia_r_pjs</t>
+  </si>
+  <si>
+    <t>fibula_l_djs</t>
+  </si>
+  <si>
+    <t>fibula_l_d13</t>
+  </si>
+  <si>
+    <t>fibula_l_m13</t>
+  </si>
+  <si>
+    <t>fibula_l_p13</t>
+  </si>
+  <si>
+    <t>fibula_l_pjs</t>
+  </si>
+  <si>
+    <t>fibula_r_djs</t>
+  </si>
+  <si>
+    <t>fibula_r_d13</t>
+  </si>
+  <si>
+    <t>fibula_r_m13</t>
+  </si>
+  <si>
+    <t>fibula_r_p13</t>
+  </si>
+  <si>
+    <t>fibula_r_pjs</t>
+  </si>
+  <si>
+    <t>metacarpals_l_1</t>
+  </si>
+  <si>
+    <t>metacarpals_l_2</t>
+  </si>
+  <si>
+    <t>metacarpals_l_3</t>
+  </si>
+  <si>
+    <t>metacarpals_l_4</t>
+  </si>
+  <si>
+    <t>metacarpals_l_5</t>
+  </si>
+  <si>
+    <t>metacarpals_r_1</t>
+  </si>
+  <si>
+    <t>metacarpals_r_2</t>
+  </si>
+  <si>
+    <t>metacarpals_r_3</t>
+  </si>
+  <si>
+    <t>metacarpals_r_4</t>
+  </si>
+  <si>
+    <t>metacarpals_r_5</t>
+  </si>
+  <si>
+    <t>metatarsals_l_1</t>
+  </si>
+  <si>
+    <t>metatarsals_l_2</t>
+  </si>
+  <si>
+    <t>metatarsals_l_3</t>
+  </si>
+  <si>
+    <t>metatarsals_l_4</t>
+  </si>
+  <si>
+    <t>metatarsals_l_5</t>
+  </si>
+  <si>
+    <t>metatarsals_r_1</t>
+  </si>
+  <si>
+    <t>metatarsals_r_2</t>
+  </si>
+  <si>
+    <t>metatarsals_r_3</t>
+  </si>
+  <si>
+    <t>metatarsals_r_4</t>
+  </si>
+  <si>
+    <t>metatarsals_r_5</t>
+  </si>
+  <si>
+    <t>vertebrae_c_1</t>
+  </si>
+  <si>
+    <t>vertebrae_c_2</t>
+  </si>
+  <si>
+    <t>vertebrae_c_3</t>
+  </si>
+  <si>
+    <t>vertebrae_c_4</t>
+  </si>
+  <si>
+    <t>vertebrae_c_5</t>
+  </si>
+  <si>
+    <t>vertebrae_t_1</t>
+  </si>
+  <si>
+    <t>vertebrae_t_2</t>
+  </si>
+  <si>
+    <t>vertebrae_t_3</t>
+  </si>
+  <si>
+    <t>vertebrae_t_4</t>
+  </si>
+  <si>
+    <t>vertebrae_t_5</t>
+  </si>
+  <si>
+    <t>vertebrae_l_1</t>
+  </si>
+  <si>
+    <t>vertebrae_l_2</t>
+  </si>
+  <si>
+    <t>vertebrae_l_3</t>
+  </si>
+  <si>
+    <t>vertebrae_l_4</t>
+  </si>
+  <si>
+    <t>vertebrae_l_5</t>
+  </si>
+  <si>
+    <t>vertebrae_remarks</t>
+  </si>
+  <si>
+    <t>ribs_l_whole</t>
+  </si>
+  <si>
+    <t>ribs_l_send</t>
+  </si>
+  <si>
+    <t>ribs_l_vend</t>
+  </si>
+  <si>
+    <t>ribs_l_frag</t>
+  </si>
+  <si>
+    <t>ribs_r_whole</t>
+  </si>
+  <si>
+    <t>ribs_r_send</t>
+  </si>
+  <si>
+    <t>ribs_r_vend</t>
+  </si>
+  <si>
+    <t>ribs_r_frag</t>
+  </si>
+  <si>
+    <t>ribs_u_whole</t>
+  </si>
+  <si>
+    <t>ribs_u_send</t>
+  </si>
+  <si>
+    <t>ribs_u_vend</t>
+  </si>
+  <si>
+    <t>ribs_u_frag</t>
+  </si>
+  <si>
+    <t>phalanges_hand_p</t>
+  </si>
+  <si>
+    <t>phalanges_hand_m</t>
+  </si>
+  <si>
+    <t>phalanges_hand_d</t>
+  </si>
+  <si>
+    <t>phalanges_foot_p</t>
+  </si>
+  <si>
+    <t>phalanges_foot_m</t>
+  </si>
+  <si>
+    <t>phalanges_foot_d</t>
+  </si>
+  <si>
+    <t>scaphoid_l</t>
+  </si>
+  <si>
+    <t>scaphoid_r</t>
+  </si>
+  <si>
+    <t>lunate_l</t>
+  </si>
+  <si>
+    <t>lunate_r</t>
+  </si>
+  <si>
+    <t>triquetral_l</t>
+  </si>
+  <si>
+    <t>triquetral_r</t>
+  </si>
+  <si>
+    <t>pisiform_l</t>
+  </si>
+  <si>
+    <t>pisiform_r</t>
+  </si>
+  <si>
+    <t>trapezium_l</t>
+  </si>
+  <si>
+    <t>trapezium_r</t>
+  </si>
+  <si>
+    <t>trapezoid_l</t>
+  </si>
+  <si>
+    <t>trapezoid_r</t>
+  </si>
+  <si>
+    <t>capitate_l</t>
+  </si>
+  <si>
+    <t>capitate_r</t>
+  </si>
+  <si>
+    <t>hamate_l</t>
+  </si>
+  <si>
+    <t>hamate_r</t>
+  </si>
+  <si>
+    <t>sesamoids_hand</t>
+  </si>
+  <si>
+    <t>talus_l</t>
+  </si>
+  <si>
+    <t>talus_r</t>
+  </si>
+  <si>
+    <t>calcaneus_l</t>
+  </si>
+  <si>
+    <t>calcaneus_r</t>
+  </si>
+  <si>
+    <t>cun_1_l</t>
+  </si>
+  <si>
+    <t>cun_1_r</t>
+  </si>
+  <si>
+    <t>cun_2_l</t>
+  </si>
+  <si>
+    <t>cun_2_r</t>
+  </si>
+  <si>
+    <t>cun_3_l</t>
+  </si>
+  <si>
+    <t>cun_3_r</t>
+  </si>
+  <si>
+    <t>navicular_l</t>
+  </si>
+  <si>
+    <t>navicular_r</t>
+  </si>
+  <si>
+    <t>cuboid_l</t>
+  </si>
+  <si>
+    <t>cuboid_r</t>
+  </si>
+  <si>
+    <t>sesamoids_foot</t>
+  </si>
+  <si>
+    <t>Stanowisko 1</t>
+  </si>
+  <si>
+    <t>H20/1</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>2010-05-01</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Stanowisko 2</t>
+  </si>
+  <si>
+    <t>H20/2</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>2010-05-02</t>
+  </si>
+  <si>
+    <t>H20/4</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>H21/1</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>2010-05-05</t>
+  </si>
+  <si>
+    <t>Stanowisko Głazy Wielkie, powiat Namysłów</t>
+  </si>
+  <si>
+    <t>A1/12</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>2010-05-12</t>
+  </si>
+  <si>
+    <t>Stanowisko 6</t>
+  </si>
+  <si>
+    <t>H12/11</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>2010-05-14</t>
   </si>
 </sst>
 </file>
@@ -360,30 +1023,2517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:GR7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:200">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:200">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>0</v>
+      </c>
+      <c r="EP2">
+        <v>0</v>
+      </c>
+      <c r="EQ2">
+        <v>0</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>0</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
+        <v>0</v>
+      </c>
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
+      </c>
+      <c r="GI2">
+        <v>0</v>
+      </c>
+      <c r="GJ2">
+        <v>0</v>
+      </c>
+      <c r="GK2">
+        <v>0</v>
+      </c>
+      <c r="GL2">
+        <v>0</v>
+      </c>
+      <c r="GM2">
+        <v>0</v>
+      </c>
+      <c r="GN2">
+        <v>0</v>
+      </c>
+      <c r="GO2">
+        <v>0</v>
+      </c>
+      <c r="GP2">
+        <v>0</v>
+      </c>
+      <c r="GQ2">
+        <v>0</v>
+      </c>
+      <c r="GR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>123</v>
+    <row r="3" spans="1:200">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
+      <c r="EM3">
+        <v>0</v>
+      </c>
+      <c r="EN3">
+        <v>0</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0</v>
+      </c>
+      <c r="EQ3">
+        <v>0</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
+      <c r="ES3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>0</v>
+      </c>
+      <c r="EY3">
+        <v>0</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FB3">
+        <v>0</v>
+      </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>0</v>
+      </c>
+      <c r="FY3">
+        <v>0</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0</v>
+      </c>
+      <c r="GD3">
+        <v>0</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0</v>
+      </c>
+      <c r="GI3">
+        <v>0</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0</v>
+      </c>
+      <c r="GL3">
+        <v>0</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GR3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>123.456</v>
+    <row r="4" spans="1:200">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:200">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>2</v>
+      </c>
+      <c r="EE5">
+        <v>23</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:200">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>0</v>
+      </c>
+      <c r="EN6">
+        <v>0</v>
+      </c>
+      <c r="EO6">
+        <v>0</v>
+      </c>
+      <c r="EP6">
+        <v>0</v>
+      </c>
+      <c r="EQ6">
+        <v>0</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
+      <c r="ES6">
+        <v>0</v>
+      </c>
+      <c r="EU6">
+        <v>0</v>
+      </c>
+      <c r="EV6">
+        <v>0</v>
+      </c>
+      <c r="EW6">
+        <v>0</v>
+      </c>
+      <c r="EX6">
+        <v>0</v>
+      </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="EZ6">
+        <v>0</v>
+      </c>
+      <c r="FA6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>0</v>
+      </c>
+      <c r="FH6">
+        <v>0</v>
+      </c>
+      <c r="FI6">
+        <v>0</v>
+      </c>
+      <c r="FJ6">
+        <v>0</v>
+      </c>
+      <c r="FK6">
+        <v>0</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>0</v>
+      </c>
+      <c r="FP6">
+        <v>0</v>
+      </c>
+      <c r="FQ6">
+        <v>0</v>
+      </c>
+      <c r="FR6">
+        <v>0</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="FW6">
+        <v>0</v>
+      </c>
+      <c r="FX6">
+        <v>0</v>
+      </c>
+      <c r="FY6">
+        <v>0</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>0</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>0</v>
+      </c>
+      <c r="GD6">
+        <v>0</v>
+      </c>
+      <c r="GE6">
+        <v>0</v>
+      </c>
+      <c r="GF6">
+        <v>0</v>
+      </c>
+      <c r="GG6">
+        <v>0</v>
+      </c>
+      <c r="GH6">
+        <v>0</v>
+      </c>
+      <c r="GI6">
+        <v>0</v>
+      </c>
+      <c r="GJ6">
+        <v>0</v>
+      </c>
+      <c r="GK6">
+        <v>0</v>
+      </c>
+      <c r="GL6">
+        <v>0</v>
+      </c>
+      <c r="GM6">
+        <v>0</v>
+      </c>
+      <c r="GN6">
+        <v>0</v>
+      </c>
+      <c r="GO6">
+        <v>0</v>
+      </c>
+      <c r="GP6">
+        <v>0</v>
+      </c>
+      <c r="GQ6">
+        <v>0</v>
+      </c>
+      <c r="GR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:200">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
